--- a/Udemy/Lecture 1 - Application Design/Resources/Data Collection Example.xlsx
+++ b/Udemy/Lecture 1 - Application Design/Resources/Data Collection Example.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RetailAdmin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitKracken\Training\Udemy\Lecture 1 - Application Design\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90457BA3-2D17-45F4-B1D0-4A99846E1BE6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16560" windowHeight="6084" xr2:uid="{99D91CD7-2400-4E7F-99F7-858BC7A83D55}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16560" windowHeight="6090" xr2:uid="{99D91CD7-2400-4E7F-99F7-858BC7A83D55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
-  <si>
-    <t>Field Name</t>
-  </si>
-  <si>
-    <t>Custom Text</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>Login</t>
   </si>
@@ -44,12 +39,6 @@
     <t>Cancel</t>
   </si>
   <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
@@ -59,12 +48,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>View Delivery</t>
-  </si>
-  <si>
-    <t>Track Delivery</t>
-  </si>
-  <si>
     <t>Sign-in</t>
   </si>
   <si>
@@ -86,7 +69,67 @@
     <t>Delivery Details</t>
   </si>
   <si>
-    <t>Track Driver</t>
+    <t>Order Number</t>
+  </si>
+  <si>
+    <t>Field Name (ID)</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>DeliveryId</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>DeliveryStatus</t>
+  </si>
+  <si>
+    <t>Your parcel is en-route and will be with you by {date} - {time}</t>
+  </si>
+  <si>
+    <t>ParcelSeen</t>
+  </si>
+  <si>
+    <t>When was my parcel last seen?</t>
+  </si>
+  <si>
+    <t>CallDriver</t>
+  </si>
+  <si>
+    <t>Call</t>
+  </si>
+  <si>
+    <t>MessageDriver</t>
+  </si>
+  <si>
+    <t>Chat</t>
+  </si>
+  <si>
+    <t>Change Address</t>
+  </si>
+  <si>
+    <t>Set Safe Place</t>
+  </si>
+  <si>
+    <t>ChangeAddress</t>
+  </si>
+  <si>
+    <t>SafePlace</t>
+  </si>
+  <si>
+    <t>EstArrival</t>
+  </si>
+  <si>
+    <t>Estimated Arrival</t>
+  </si>
+  <si>
+    <t>My Deliveries / Past Deliveries</t>
   </si>
 </sst>
 </file>
@@ -110,15 +153,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -126,13 +181,109 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,116 +598,195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A8F824-6F2F-4FF5-A647-A224EF876425}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="56.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="8"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="B16" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>